--- a/datasets/fight-songs.xlsx
+++ b/datasets/fight-songs.xlsx
@@ -1179,7 +1179,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1231,6 +1231,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1259,7 +1265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1289,16 +1295,19 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1611,29 +1620,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="44.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="14" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="44.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1707,7 +1716,7 @@
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="11" t="s">
         <v>52</v>
       </c>
@@ -1778,7 +1787,7 @@
         <v>58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="11" t="s">
         <v>59</v>
       </c>
@@ -1849,7 +1858,7 @@
         <v>63</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="11" t="s">
         <v>64</v>
       </c>
@@ -1920,7 +1929,7 @@
         <v>67</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="11" t="s">
         <v>68</v>
       </c>
@@ -1991,7 +2000,7 @@
         <v>71</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="11" t="s">
         <v>72</v>
       </c>
@@ -2062,7 +2071,7 @@
         <v>75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="11" t="s">
         <v>76</v>
       </c>
@@ -2133,7 +2142,7 @@
         <v>79</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="11" t="s">
         <v>80</v>
       </c>
@@ -2204,7 +2213,7 @@
         <v>83</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="11" t="s">
         <v>84</v>
       </c>
@@ -2275,7 +2284,7 @@
         <v>87</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="11" t="s">
         <v>88</v>
       </c>
@@ -2346,7 +2355,7 @@
         <v>92</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="11" t="s">
         <v>93</v>
       </c>
@@ -2417,7 +2426,7 @@
         <v>96</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="11" t="s">
         <v>97</v>
       </c>
@@ -2488,7 +2497,7 @@
         <v>100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="11" t="s">
         <v>101</v>
       </c>
@@ -2559,7 +2568,7 @@
         <v>105</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="11" t="s">
         <v>106</v>
       </c>
@@ -2630,7 +2639,7 @@
         <v>109</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="11" t="s">
         <v>110</v>
       </c>
@@ -2701,7 +2710,7 @@
         <v>113</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="11" t="s">
         <v>114</v>
       </c>
@@ -2772,7 +2781,7 @@
         <v>117</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="11" t="s">
         <v>118</v>
       </c>
@@ -2843,7 +2852,7 @@
         <v>121</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="11" t="s">
         <v>122</v>
       </c>
@@ -2914,7 +2923,7 @@
         <v>125</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="11" t="s">
         <v>126</v>
       </c>
